--- a/src/test/resources/Vytrak Credentials.xlsx
+++ b/src/test/resources/Vytrak Credentials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\newVyTrack\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\JetBrains\IntelliJ IDEA Community Edition 2019.3.4\jbr\bin\newVyTrack\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96916B5D-1485-4C61-BD1B-4664D0D31DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A5B46-7AB5-47DD-9483-6292D6607C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -454,10 +454,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="24"/>
+      <sz val="12"/>
       <color rgb="FFB45F06"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -567,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,13 +601,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,7 +875,7 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -885,7 +904,7 @@
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -912,7 +931,7 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -960,7 +979,7 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -989,7 +1008,7 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1035,7 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1083,7 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1093,7 +1112,7 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1139,7 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1187,7 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1197,7 +1216,7 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1243,7 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1272,7 +1291,7 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1301,7 +1320,7 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1347,7 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1395,7 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1405,7 +1424,7 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1451,7 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1499,7 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1509,7 +1528,7 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1555,7 @@
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -1563,7 +1582,7 @@
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1592,7 +1611,7 @@
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1638,7 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="9" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1686,7 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1696,7 +1715,7 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1742,7 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1790,7 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1800,7 +1819,7 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="8" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1846,7 @@
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="9" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1892,7 @@
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1902,7 +1921,7 @@
       <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1948,7 @@
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="9" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +1994,7 @@
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2004,7 +2023,7 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2050,7 @@
       <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="9" t="s">
         <v>12</v>
       </c>
@@ -2059,11 +2078,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A2:A4"/>
@@ -2071,6 +2085,11 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2121,8 +2140,8 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2163,8 +2182,8 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="5"/>
@@ -2194,10 +2213,10 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="5"/>
@@ -2226,10 +2245,10 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="5"/>
@@ -2257,11 +2276,11 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2288,10 +2307,10 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2322,10 +2341,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="5"/>
@@ -2353,11 +2372,11 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2384,10 +2403,10 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5"/>
@@ -2416,10 +2435,10 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="5"/>
@@ -2447,11 +2466,11 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2478,10 +2497,10 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="5"/>
@@ -2510,10 +2529,10 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="5"/>
@@ -2541,11 +2560,11 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2572,10 +2591,10 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="5"/>
@@ -2604,10 +2623,10 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="5"/>
@@ -2635,11 +2654,11 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2666,10 +2685,10 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="5"/>
@@ -2698,10 +2717,10 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="5"/>
@@ -2729,11 +2748,11 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.4">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2760,10 +2779,10 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="5"/>
@@ -2792,10 +2811,10 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="5"/>
@@ -2881,5 +2900,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>